--- a/src/com/glucoma/uat/trf-external-user.xlsx
+++ b/src/com/glucoma/uat/trf-external-user.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="182">
   <si>
     <t>Specimen ID Number</t>
   </si>
@@ -573,9 +573,6 @@
     <t>Dr. Thuong OP1</t>
   </si>
   <si>
-    <t>02/20/2023</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -588,10 +585,10 @@
     <t>C:\Users\admin\Pictures\image(12086).png</t>
   </si>
   <si>
-    <t>1000105</t>
-  </si>
-  <si>
-    <t>1000106</t>
+    <t>03/17/2023</t>
+  </si>
+  <si>
+    <t>1000108</t>
   </si>
 </sst>
 </file>
@@ -1470,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1512,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>40</v>
@@ -1601,7 +1598,7 @@
         <v>105</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -1771,7 +1768,7 @@
         <v>181</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1786,12 +1783,12 @@
         <v>13</v>
       </c>
       <c r="G4" s="23" t="str">
-        <f t="shared" ref="G4:H5" si="0">$A4</f>
-        <v>1000105</v>
+        <f t="shared" ref="G4:H4" si="0">$A4</f>
+        <v>1000108</v>
       </c>
       <c r="H4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>1000105</v>
+        <v>1000108</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>93</v>
@@ -1800,8 +1797,8 @@
         <v>17</v>
       </c>
       <c r="K4" s="23" t="str">
-        <f t="shared" ref="K4:K5" si="1">A4</f>
-        <v>1000105</v>
+        <f t="shared" ref="K4" si="1">A4</f>
+        <v>1000108</v>
       </c>
       <c r="L4" s="21" t="s">
         <v>19</v>
@@ -1816,22 +1813,22 @@
         <v>51</v>
       </c>
       <c r="Q4" s="23" t="str">
-        <f t="shared" ref="Q4:S5" si="2">$A4</f>
-        <v>1000105</v>
+        <f t="shared" ref="Q4:S4" si="2">$A4</f>
+        <v>1000108</v>
       </c>
       <c r="R4" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1000105</v>
+        <v>1000108</v>
       </c>
       <c r="S4" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>1000105</v>
+        <v>1000108</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>110</v>
       </c>
       <c r="Z4" s="23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AA4" s="21" t="s">
         <v>174</v>
@@ -1840,85 +1837,12 @@
         <v>175</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>1000106</v>
-      </c>
-      <c r="H5" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>1000106</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>1000106</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="21">
-        <v>11111</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>1000106</v>
-      </c>
-      <c r="R5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>1000106</v>
-      </c>
-      <c r="S5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>1000106</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z5" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB5" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="B5" s="27"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" s="27"/>
@@ -1969,35 +1893,30 @@
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="B18" s="27"/>
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" s="27"/>
-      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A20" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B20" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
+    <hyperlink ref="A20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
